--- a/DataModel.xlsx
+++ b/DataModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\PgScript\MasterDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACCFF9BF-B1CE-43DD-97A1-0B652BCD6CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F0462B-053E-4A47-BBD3-A99F5932C731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F0B82011-01D6-4549-B595-83FB99A15DF2}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{F0B82011-01D6-4549-B595-83FB99A15DF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Datamodel" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="126">
   <si>
     <t>Customer</t>
   </si>
@@ -234,13 +234,196 @@
   </si>
   <si>
     <t>NUMERIC</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>john@example.com</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>1994-06-15</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Software Development</t>
+  </si>
+  <si>
+    <t>Website Design</t>
+  </si>
+  <si>
+    <t>2023-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>2023-06-30 00:00:00</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Design UI</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>2023-01-31 00:00:00</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>CO1</t>
+  </si>
+  <si>
+    <t>ABC Inc.</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>123 Main St</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>1990-05-15</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>5551434567</t>
+  </si>
+  <si>
+    <t>michael@example.com</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Age of person</t>
+  </si>
+  <si>
+    <t>Job of person</t>
+  </si>
+  <si>
+    <t>Phone number of person</t>
+  </si>
+  <si>
+    <t>Email of person</t>
+  </si>
+  <si>
+    <t>Requirement ID</t>
+  </si>
+  <si>
+    <t>Customer ID</t>
+  </si>
+  <si>
+    <t>Funding</t>
+  </si>
+  <si>
+    <t>Cost of project</t>
+  </si>
+  <si>
+    <t>Project ID</t>
+  </si>
+  <si>
+    <t>Name of project</t>
+  </si>
+  <si>
+    <t>Task number</t>
+  </si>
+  <si>
+    <t>Task name</t>
+  </si>
+  <si>
+    <t>Status Task</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Salary of person</t>
+  </si>
+  <si>
+    <t>Department ID</t>
+  </si>
+  <si>
+    <t>Department name</t>
+  </si>
+  <si>
+    <t>Company name</t>
+  </si>
+  <si>
+    <t>Company ID</t>
+  </si>
+  <si>
+    <t>Company Country</t>
+  </si>
+  <si>
+    <t>Company City</t>
+  </si>
+  <si>
+    <t>Company Address</t>
+  </si>
+  <si>
+    <t>Company Type</t>
+  </si>
+  <si>
+    <t>NON KEY</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +433,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -364,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,19 +631,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,10 +670,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -796,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8724EE-6E93-4C1B-9C5A-BC233387CE96}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,16 +1005,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -854,7 +1049,9 @@
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
@@ -867,7 +1064,9 @@
       <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -876,7 +1075,9 @@
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
@@ -886,8 +1087,12 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -896,7 +1101,9 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -906,8 +1113,12 @@
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -916,7 +1127,9 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -926,8 +1139,12 @@
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="15"/>
+      <c r="G6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -951,7 +1168,9 @@
       <c r="G7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="16" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
@@ -966,14 +1185,18 @@
       <c r="D8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="F8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -982,16 +1205,24 @@
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="15">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1000,7 +1231,9 @@
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1243,12 @@
       <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="15"/>
+      <c r="G10" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1020,7 +1257,9 @@
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="25" t="s">
+        <v>103</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
@@ -1033,7 +1272,9 @@
       <c r="G11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="15">
+        <v>5551234567</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1042,7 +1283,9 @@
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1055,19 +1298,21 @@
       <c r="G12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="26"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1102,7 +1347,9 @@
       <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
@@ -1115,7 +1362,9 @@
       <c r="G16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1124,16 +1373,24 @@
       <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="F17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1142,16 +1399,24 @@
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="D18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="F18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="15"/>
+      <c r="G18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="31">
+        <v>50000</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
@@ -1160,7 +1425,10 @@
       <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="8"/>
+      <c r="C19" s="8" t="str">
+        <f>C3</f>
+        <v>Customer ID</v>
+      </c>
       <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
@@ -1173,19 +1441,21 @@
       <c r="G19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1220,7 +1490,9 @@
       <c r="B23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="D23" s="6" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1505,9 @@
       <c r="G23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -1242,7 +1516,9 @@
       <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="D24" s="3" t="s">
         <v>10</v>
       </c>
@@ -1252,8 +1528,12 @@
       <c r="F24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -1262,16 +1542,24 @@
       <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="D25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="F25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="15"/>
+      <c r="G25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="31">
+        <v>19000</v>
+      </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
@@ -1280,7 +1568,10 @@
       <c r="B26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6" t="str">
+        <f>C16</f>
+        <v>Requirement ID</v>
+      </c>
       <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
@@ -1293,7 +1584,9 @@
       <c r="G26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
@@ -1308,14 +1601,18 @@
       <c r="D27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="F27" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="20"/>
+      <c r="H27" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
@@ -1330,14 +1627,18 @@
       <c r="D28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="10"/>
+      <c r="E28" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="F28" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="20"/>
+      <c r="H28" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="K28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -1365,20 +1666,24 @@
       <c r="F29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="15"/>
+      <c r="G29" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="32">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1413,7 +1718,9 @@
       <c r="B33" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="13"/>
+      <c r="C33" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="D33" s="13" t="s">
         <v>10</v>
       </c>
@@ -1426,7 +1733,9 @@
       <c r="G33" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="23"/>
+      <c r="H33" s="23" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
@@ -1435,7 +1744,9 @@
       <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="D34" s="3" t="s">
         <v>10</v>
       </c>
@@ -1445,8 +1756,12 @@
       <c r="F34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="15"/>
+      <c r="G34" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="K34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -1468,14 +1783,18 @@
       <c r="D35" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="F35" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="20"/>
+      <c r="H35" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
@@ -1490,12 +1809,18 @@
       <c r="D36" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="G36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="20"/>
+      <c r="H36" s="20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
@@ -1504,7 +1829,9 @@
       <c r="B37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D37" s="3" t="s">
         <v>10</v>
       </c>
@@ -1514,8 +1841,12 @@
       <c r="F37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="15"/>
+      <c r="G37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
@@ -1524,7 +1855,10 @@
       <c r="B38" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="6" t="str">
+        <f>C23</f>
+        <v>Project ID</v>
+      </c>
       <c r="D38" s="6" t="s">
         <v>10</v>
       </c>
@@ -1537,7 +1871,9 @@
       <c r="G38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="14"/>
+      <c r="H38" s="14" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
@@ -1546,7 +1882,10 @@
       <c r="B39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="6" t="str">
+        <f>C43</f>
+        <v>Employee ID</v>
+      </c>
       <c r="D39" s="6" t="s">
         <v>10</v>
       </c>
@@ -1559,19 +1898,21 @@
       <c r="G39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="14"/>
+      <c r="H39" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1606,7 +1947,9 @@
       <c r="B43" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
@@ -1619,7 +1962,9 @@
       <c r="G43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="14"/>
+      <c r="H43" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
@@ -1628,7 +1973,9 @@
       <c r="B44" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D44" s="3" t="s">
         <v>10</v>
       </c>
@@ -1638,8 +1985,12 @@
       <c r="F44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="15"/>
+      <c r="G44" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
@@ -1648,7 +1999,9 @@
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D45" s="3" t="s">
         <v>10</v>
       </c>
@@ -1658,8 +2011,12 @@
       <c r="F45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="15"/>
+      <c r="G45" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
@@ -1668,7 +2025,9 @@
       <c r="B46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1678,8 +2037,12 @@
       <c r="F46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="15"/>
+      <c r="G46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
@@ -1703,7 +2066,9 @@
       <c r="G47" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H47" s="16"/>
+      <c r="H47" s="16" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
@@ -1718,14 +2083,18 @@
       <c r="D48" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="10"/>
+      <c r="E48" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="F48" s="10" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="20"/>
+      <c r="H48" s="20" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
@@ -1734,14 +2103,24 @@
       <c r="B49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="D49" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="15"/>
+      <c r="E49" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="15">
+        <v>33</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
@@ -1750,7 +2129,9 @@
       <c r="B50" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="25" t="s">
+        <v>102</v>
+      </c>
       <c r="D50" s="3" t="s">
         <v>10</v>
       </c>
@@ -1760,8 +2141,12 @@
       <c r="F50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="15"/>
+      <c r="G50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
@@ -1770,16 +2155,24 @@
       <c r="B51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="D51" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="13" t="s">
+        <v>125</v>
+      </c>
       <c r="F51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="15"/>
+      <c r="G51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="31">
+        <v>70000</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
@@ -1797,11 +2190,15 @@
       <c r="E52" s="6">
         <v>10</v>
       </c>
-      <c r="F52" s="6"/>
+      <c r="F52" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="G52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="14"/>
+      <c r="H52" s="14" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
@@ -1810,7 +2207,9 @@
       <c r="B53" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="25" t="s">
+        <v>103</v>
+      </c>
       <c r="D53" s="3" t="s">
         <v>10</v>
       </c>
@@ -1823,7 +2222,9 @@
       <c r="G53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="21"/>
+      <c r="H53" s="21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
@@ -1832,7 +2233,9 @@
       <c r="B54" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="D54" s="3" t="s">
         <v>10</v>
       </c>
@@ -1845,7 +2248,9 @@
       <c r="G54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="15"/>
+      <c r="H54" s="33" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
@@ -1854,7 +2259,10 @@
       <c r="B55" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="24"/>
+      <c r="C55" s="24" t="str">
+        <f>C59</f>
+        <v>Department ID</v>
+      </c>
       <c r="D55" s="6" t="s">
         <v>10</v>
       </c>
@@ -1867,19 +2275,21 @@
       <c r="G55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="14"/>
+      <c r="H55" s="14" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="29"/>
-      <c r="H57" s="30"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -1914,7 +2324,9 @@
       <c r="B59" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="D59" s="6" t="s">
         <v>10</v>
       </c>
@@ -1927,7 +2339,9 @@
       <c r="G59" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="14"/>
+      <c r="H59" s="14" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
@@ -1936,7 +2350,9 @@
       <c r="B60" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="D60" s="3" t="s">
         <v>10</v>
       </c>
@@ -1946,8 +2362,12 @@
       <c r="F60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="15"/>
+      <c r="G60" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
@@ -1956,7 +2376,10 @@
       <c r="B61" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="8"/>
+      <c r="C61" s="8" t="str">
+        <f>C65</f>
+        <v>Company ID</v>
+      </c>
       <c r="D61" s="8" t="s">
         <v>10</v>
       </c>
@@ -1969,19 +2392,21 @@
       <c r="G61" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H61" s="18"/>
+      <c r="H61" s="18" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="30"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="28"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -2016,7 +2441,9 @@
       <c r="B65" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C65" s="6"/>
+      <c r="C65" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="D65" s="6" t="s">
         <v>10</v>
       </c>
@@ -2029,7 +2456,9 @@
       <c r="G65" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H65" s="14"/>
+      <c r="H65" s="14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
@@ -2038,7 +2467,9 @@
       <c r="B66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="D66" s="3" t="s">
         <v>10</v>
       </c>
@@ -2048,8 +2479,12 @@
       <c r="F66" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="15"/>
+      <c r="G66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
@@ -2058,7 +2493,9 @@
       <c r="B67" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="D67" s="3" t="s">
         <v>10</v>
       </c>
@@ -2068,8 +2505,12 @@
       <c r="F67" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="15"/>
+      <c r="G67" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
@@ -2078,7 +2519,9 @@
       <c r="B68" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="D68" s="3" t="s">
         <v>10</v>
       </c>
@@ -2088,8 +2531,12 @@
       <c r="F68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="15"/>
+      <c r="G68" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
@@ -2098,7 +2545,9 @@
       <c r="B69" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="D69" s="3" t="s">
         <v>10</v>
       </c>
@@ -2108,8 +2557,12 @@
       <c r="F69" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="15"/>
+      <c r="G69" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
@@ -2118,7 +2571,9 @@
       <c r="B70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="D70" s="3" t="s">
         <v>10</v>
       </c>
@@ -2128,8 +2583,12 @@
       <c r="F70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="15"/>
+      <c r="G70" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2142,27 +2601,13 @@
     <mergeCell ref="A21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H53" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fe77bdb2-eb48-440c-a8dd-e18aa94719d6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="เอกสาร" ma:contentTypeID="0x01010024C046330CEEB048AC49439E90EE4615" ma:contentTypeVersion="12" ma:contentTypeDescription="สร้างเอกสารใหม่" ma:contentTypeScope="" ma:versionID="9c13ecc857b32ec3500e17888e12ebaa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fe77bdb2-eb48-440c-a8dd-e18aa94719d6" xmlns:ns4="78ae752d-4e43-435d-9e04-0577af884178" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="866709d023d688ed2da825b36823d3ae" ns3:_="" ns4:_="">
     <xsd:import namespace="fe77bdb2-eb48-440c-a8dd-e18aa94719d6"/>
@@ -2377,10 +2822,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fe77bdb2-eb48-440c-a8dd-e18aa94719d6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A0A4F0-FDE1-4D03-8FA5-2E68BFDF3DC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020EC97B-5252-4C96-AA3D-E5EE4BF2388B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fe77bdb2-eb48-440c-a8dd-e18aa94719d6"/>
+    <ds:schemaRef ds:uri="78ae752d-4e43-435d-9e04-0577af884178"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2403,20 +2876,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020EC97B-5252-4C96-AA3D-E5EE4BF2388B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A0A4F0-FDE1-4D03-8FA5-2E68BFDF3DC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fe77bdb2-eb48-440c-a8dd-e18aa94719d6"/>
-    <ds:schemaRef ds:uri="78ae752d-4e43-435d-9e04-0577af884178"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DataModel.xlsx
+++ b/DataModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\PgScript\MasterDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F0462B-053E-4A47-BBD3-A99F5932C731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9900F843-AC70-4A2B-8E9D-8871A0CC5AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{F0B82011-01D6-4549-B595-83FB99A15DF2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F0B82011-01D6-4549-B595-83FB99A15DF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Datamodel" sheetId="2" r:id="rId1"/>
@@ -554,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,6 +631,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,13 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8724EE-6E93-4C1B-9C5A-BC233387CE96}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,16 +1008,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1303,16 +1306,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="30"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1388,7 +1391,7 @@
       <c r="G17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="28" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1414,7 +1417,7 @@
       <c r="G18" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="26">
         <v>50000</v>
       </c>
     </row>
@@ -1446,16 +1449,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1557,7 +1560,7 @@
       <c r="G25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="26">
         <v>19000</v>
       </c>
     </row>
@@ -1610,7 +1613,7 @@
       <c r="G27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="34" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1636,7 +1639,7 @@
       <c r="G28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="34" t="s">
         <v>79</v>
       </c>
       <c r="K28" s="5"/>
@@ -1669,21 +1672,21 @@
       <c r="G29" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H29" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1792,7 +1795,7 @@
       <c r="G35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="34" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1818,7 +1821,7 @@
       <c r="G36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="34" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1903,16 +1906,16 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -2170,7 +2173,7 @@
       <c r="G51" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H51" s="31">
+      <c r="H51" s="26">
         <v>70000</v>
       </c>
     </row>
@@ -2248,13 +2251,13 @@
       <c r="G54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H54" s="33" t="s">
+      <c r="H54" s="28" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>36</v>
@@ -2280,16 +2283,16 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="31"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -2397,16 +2400,16 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="28"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="31"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -2608,6 +2611,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fe77bdb2-eb48-440c-a8dd-e18aa94719d6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="เอกสาร" ma:contentTypeID="0x01010024C046330CEEB048AC49439E90EE4615" ma:contentTypeVersion="12" ma:contentTypeDescription="สร้างเอกสารใหม่" ma:contentTypeScope="" ma:versionID="9c13ecc857b32ec3500e17888e12ebaa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fe77bdb2-eb48-440c-a8dd-e18aa94719d6" xmlns:ns4="78ae752d-4e43-435d-9e04-0577af884178" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="866709d023d688ed2da825b36823d3ae" ns3:_="" ns4:_="">
     <xsd:import namespace="fe77bdb2-eb48-440c-a8dd-e18aa94719d6"/>
@@ -2822,38 +2842,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fe77bdb2-eb48-440c-a8dd-e18aa94719d6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020EC97B-5252-4C96-AA3D-E5EE4BF2388B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A0A4F0-FDE1-4D03-8FA5-2E68BFDF3DC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fe77bdb2-eb48-440c-a8dd-e18aa94719d6"/>
-    <ds:schemaRef ds:uri="78ae752d-4e43-435d-9e04-0577af884178"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2876,9 +2868,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A0A4F0-FDE1-4D03-8FA5-2E68BFDF3DC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020EC97B-5252-4C96-AA3D-E5EE4BF2388B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fe77bdb2-eb48-440c-a8dd-e18aa94719d6"/>
+    <ds:schemaRef ds:uri="78ae752d-4e43-435d-9e04-0577af884178"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/DataModel.xlsx
+++ b/DataModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\PgScript\MasterDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9900F843-AC70-4A2B-8E9D-8871A0CC5AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748ECD69-6D02-4BD9-9C3F-D962B184AAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{F0B82011-01D6-4549-B595-83FB99A15DF2}"/>
   </bookViews>
@@ -410,10 +410,10 @@
     <t>Company Type</t>
   </si>
   <si>
-    <t>NON KEY</t>
-  </si>
-  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>NO KEY</t>
   </si>
 </sst>
 </file>
@@ -640,6 +640,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,9 +656,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8724EE-6E93-4C1B-9C5A-BC233387CE96}">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,16 +1008,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1091,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>67</v>
@@ -1117,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>68</v>
@@ -1143,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>69</v>
@@ -1189,7 +1189,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>11</v>
@@ -1215,13 +1215,13 @@
         <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="H9" s="15">
         <v>29</v>
@@ -1247,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>71</v>
@@ -1306,16 +1306,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1383,13 +1383,13 @@
         <v>62</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="H17" s="28" t="s">
         <v>76</v>
@@ -1409,13 +1409,13 @@
         <v>64</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="26">
         <v>50000</v>
@@ -1449,16 +1449,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1532,7 +1532,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H24" s="15" t="s">
         <v>77</v>
@@ -1552,13 +1552,13 @@
         <v>64</v>
       </c>
       <c r="E25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="H25" s="26">
         <v>19000</v>
@@ -1605,7 +1605,7 @@
         <v>58</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>11</v>
@@ -1613,7 +1613,7 @@
       <c r="G27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="29" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>11</v>
@@ -1639,7 +1639,7 @@
       <c r="G28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="34" t="s">
+      <c r="H28" s="29" t="s">
         <v>79</v>
       </c>
       <c r="K28" s="5"/>
@@ -1670,23 +1670,23 @@
         <v>11</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H29" s="27">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1760,7 +1760,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H34" s="15" t="s">
         <v>81</v>
@@ -1787,7 +1787,7 @@
         <v>58</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>11</v>
@@ -1795,7 +1795,7 @@
       <c r="G35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="34" t="s">
+      <c r="H35" s="29" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1813,15 +1813,15 @@
         <v>58</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="34" t="s">
+      <c r="H36" s="29" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H37" s="15" t="s">
         <v>84</v>
@@ -1906,16 +1906,16 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1989,7 +1989,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H44" s="15" t="s">
         <v>91</v>
@@ -2015,7 +2015,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H45" s="15" t="s">
         <v>92</v>
@@ -2041,7 +2041,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H46" s="15" t="s">
         <v>69</v>
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>11</v>
@@ -2113,13 +2113,13 @@
         <v>20</v>
       </c>
       <c r="E49" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="H49" s="15">
         <v>33</v>
@@ -2145,7 +2145,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H50" s="15" t="s">
         <v>94</v>
@@ -2165,13 +2165,13 @@
         <v>64</v>
       </c>
       <c r="E51" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="H51" s="26">
         <v>70000</v>
@@ -2194,7 +2194,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>12</v>
@@ -2283,16 +2283,16 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="32"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -2366,7 +2366,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>99</v>
@@ -2400,16 +2400,16 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="31"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="32"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -2483,7 +2483,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H66" s="15" t="s">
         <v>87</v>
@@ -2509,7 +2509,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>88</v>
@@ -2535,7 +2535,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H68" s="15" t="s">
         <v>89</v>
@@ -2561,7 +2561,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H69" s="15" t="s">
         <v>90</v>
@@ -2587,7 +2587,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H70" s="15" t="s">
         <v>100</v>
@@ -2611,23 +2611,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fe77bdb2-eb48-440c-a8dd-e18aa94719d6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="เอกสาร" ma:contentTypeID="0x01010024C046330CEEB048AC49439E90EE4615" ma:contentTypeVersion="12" ma:contentTypeDescription="สร้างเอกสารใหม่" ma:contentTypeScope="" ma:versionID="9c13ecc857b32ec3500e17888e12ebaa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fe77bdb2-eb48-440c-a8dd-e18aa94719d6" xmlns:ns4="78ae752d-4e43-435d-9e04-0577af884178" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="866709d023d688ed2da825b36823d3ae" ns3:_="" ns4:_="">
     <xsd:import namespace="fe77bdb2-eb48-440c-a8dd-e18aa94719d6"/>
@@ -2842,10 +2825,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fe77bdb2-eb48-440c-a8dd-e18aa94719d6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A0A4F0-FDE1-4D03-8FA5-2E68BFDF3DC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020EC97B-5252-4C96-AA3D-E5EE4BF2388B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fe77bdb2-eb48-440c-a8dd-e18aa94719d6"/>
+    <ds:schemaRef ds:uri="78ae752d-4e43-435d-9e04-0577af884178"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2868,20 +2879,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020EC97B-5252-4C96-AA3D-E5EE4BF2388B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A0A4F0-FDE1-4D03-8FA5-2E68BFDF3DC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fe77bdb2-eb48-440c-a8dd-e18aa94719d6"/>
-    <ds:schemaRef ds:uri="78ae752d-4e43-435d-9e04-0577af884178"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>